--- a/tests/testthat/STUDY003_TE.xlsx
+++ b/tests/testthat/STUDY003_TE.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t xml:space="preserve">STUDYID</t>
   </si>
@@ -72,6 +72,9 @@
     <t xml:space="preserve">ET3</t>
   </si>
   <si>
+    <t xml:space="preserve">WASHOUT</t>
+  </si>
+  <si>
     <t xml:space="preserve"> WASHOUT</t>
   </si>
   <si>
@@ -160,6 +163,12 @@
   </si>
   <si>
     <t xml:space="preserve">P14D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">End of washout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">End of washout period</t>
   </si>
   <si>
     <t xml:space="preserve">End of treatment</t>
@@ -626,7 +635,7 @@
       <c r="H4"/>
       <c r="I4"/>
       <c r="J4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
@@ -646,10 +655,10 @@
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
@@ -674,7 +683,7 @@
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G6" t="s">
         <v>19</v>
@@ -682,7 +691,7 @@
       <c r="H6"/>
       <c r="I6"/>
       <c r="J6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
@@ -702,10 +711,10 @@
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H7"/>
       <c r="I7"/>
@@ -721,16 +730,16 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G8" t="s">
         <v>14</v>
@@ -749,19 +758,19 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9" t="n">
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H9"/>
       <c r="I9"/>
@@ -777,16 +786,16 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10" t="n">
         <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G10" t="s">
         <v>19</v>
@@ -794,7 +803,7 @@
       <c r="H10"/>
       <c r="I10"/>
       <c r="J10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
@@ -805,19 +814,19 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H11"/>
       <c r="I11"/>
@@ -833,16 +842,16 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G12" t="s">
         <v>19</v>
@@ -850,7 +859,7 @@
       <c r="H12"/>
       <c r="I12"/>
       <c r="J12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
@@ -861,16 +870,16 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E13" t="n">
         <v>6</v>
       </c>
       <c r="F13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G13" t="s">
         <v>16</v>
@@ -889,16 +898,16 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G14" t="s">
         <v>14</v>
@@ -917,19 +926,19 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E15" t="n">
         <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H15"/>
       <c r="I15"/>
@@ -945,16 +954,16 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E16" t="n">
         <v>3</v>
       </c>
       <c r="F16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s">
         <v>19</v>
@@ -962,7 +971,7 @@
       <c r="H16"/>
       <c r="I16"/>
       <c r="J16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17">
@@ -973,16 +982,16 @@
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
       </c>
       <c r="F17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G17" t="s">
         <v>16</v>
@@ -1001,16 +1010,16 @@
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
       </c>
       <c r="F18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G18" t="s">
         <v>19</v>
@@ -1018,7 +1027,7 @@
       <c r="H18"/>
       <c r="I18"/>
       <c r="J18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19">
@@ -1029,19 +1038,19 @@
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E19" t="n">
         <v>6</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H19"/>
       <c r="I19"/>
@@ -1077,13 +1086,13 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2">
@@ -1091,7 +1100,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -1100,13 +1109,13 @@
         <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3">
@@ -1114,7 +1123,7 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
@@ -1123,13 +1132,13 @@
         <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4">
@@ -1137,7 +1146,7 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
@@ -1145,31 +1154,37 @@
       <c r="D4" t="s">
         <v>19</v>
       </c>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4"/>
+      <c r="E4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6">
@@ -1177,22 +1192,22 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
